--- a/Test Data/GalleryApp TEST CASES.xlsx
+++ b/Test Data/GalleryApp TEST CASES.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="TS" sheetId="1" r:id="rId1"/>
     <sheet name="TC " sheetId="2" r:id="rId2"/>
-    <sheet name="Bug Report1" sheetId="3" r:id="rId3"/>
+    <sheet name="Bug Reports" sheetId="3" r:id="rId3"/>
+    <sheet name="Automation Data" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="125">
   <si>
     <r>
       <rPr>
@@ -54,13 +55,19 @@
     <t>TC status</t>
   </si>
   <si>
+    <t>My Gallery</t>
+  </si>
+  <si>
+    <t>Editing a Gallery</t>
+  </si>
+  <si>
     <t>ID: 1</t>
   </si>
   <si>
     <t>Precondiction</t>
   </si>
   <si>
-    <t xml:space="preserve">TC name:  </t>
+    <t>TC name: Validation of editing name of a Gallery</t>
   </si>
   <si>
     <t>Test pass: Y/N</t>
@@ -72,37 +79,238 @@
     <t>Bug report #</t>
   </si>
   <si>
+    <t xml:space="preserve">the user must already be registered </t>
+  </si>
+  <si>
     <t>ACTION</t>
   </si>
   <si>
+    <t>TEST DATA</t>
+  </si>
+  <si>
     <t>EXPECTED RESULT</t>
   </si>
   <si>
+    <t>and login with valid  email address and password,</t>
+  </si>
+  <si>
+    <t>1.Click on "My galleries"</t>
+  </si>
+  <si>
+    <t>My Galleries page is opened and its contents are visible</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Galleries button is not responcive, </t>
+  </si>
+  <si>
+    <t>and a Gallery must be created</t>
+  </si>
+  <si>
+    <t>2.Click on gallery name you want to edit</t>
+  </si>
+  <si>
+    <t>Bugs</t>
+  </si>
+  <si>
+    <t>Gallery is opened</t>
+  </si>
+  <si>
+    <t>the page is not opened</t>
+  </si>
+  <si>
+    <t>3.Click on "edit" button</t>
+  </si>
+  <si>
+    <t>Editing page is opened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.Change the name of the gallery </t>
+  </si>
+  <si>
+    <t>Insects</t>
+  </si>
+  <si>
+    <t>New name is visible</t>
+  </si>
+  <si>
+    <t>5.Click "Submit"</t>
+  </si>
+  <si>
+    <t>The name of the gallery has been successfully changed</t>
+  </si>
+  <si>
+    <t>ID: 2</t>
+  </si>
+  <si>
+    <t>TC name: Validation of adding description when there is no description of a Gallery</t>
+  </si>
+  <si>
+    <t>Click on "My galleries"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on gallery title </t>
+  </si>
+  <si>
+    <t>Click on edit button</t>
+  </si>
+  <si>
+    <t>Click on Description field</t>
+  </si>
+  <si>
+    <t>Description field is empty</t>
+  </si>
+  <si>
+    <t>Insert description</t>
+  </si>
+  <si>
+    <t>Insects are also knowen as bugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description is visible </t>
+  </si>
+  <si>
+    <t>Click "Submit"</t>
+  </si>
+  <si>
+    <t>The Description of the gallery has been successfully added</t>
+  </si>
+  <si>
+    <t>ID: 3</t>
+  </si>
+  <si>
+    <t>TC name: Validation of editing description when there description already exist</t>
+  </si>
+  <si>
+    <t>Insects are also known as bugs</t>
+  </si>
+  <si>
+    <t>Description field contain description</t>
+  </si>
+  <si>
+    <t>Clear existing description</t>
+  </si>
+  <si>
+    <t>There are more than 1 mil species of insects also known as bugs</t>
+  </si>
+  <si>
+    <t>The Description of the gallery has been successfully  changed</t>
+  </si>
+  <si>
+    <t>ID: 4</t>
+  </si>
+  <si>
+    <t>TC name: Validation of adding a new image in a existing Gallery</t>
+  </si>
+  <si>
+    <t>Click on Add image</t>
+  </si>
+  <si>
+    <t>Field for Image URL is displayed</t>
+  </si>
+  <si>
+    <t>Enter Image URL</t>
+  </si>
+  <si>
+    <t>https://images.techhive.com/images/article/2016/02/thinkstockphotos-bugs-ingram-publishing-100645308-large.jpg</t>
+  </si>
+  <si>
+    <t>Image URL is visible</t>
+  </si>
+  <si>
+    <t>Click on "Submit"</t>
+  </si>
+  <si>
+    <t>New image is visible</t>
+  </si>
+  <si>
+    <t>ID: 5</t>
+  </si>
+  <si>
+    <t>TC name: Validation of adding multiple Images in a existing Gallery</t>
+  </si>
+  <si>
+    <t>New images are visible</t>
+  </si>
+  <si>
+    <t>ID: 6</t>
+  </si>
+  <si>
+    <t>TC name: Validation of deleting a image in a existing Gallery</t>
+  </si>
+  <si>
+    <t>Click on recycle bin in a end of a Image field</t>
+  </si>
+  <si>
+    <t>Image is deleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>Bug ID:</t>
   </si>
   <si>
     <t>Bug name:</t>
   </si>
   <si>
+    <t>Inaccurate time of comment</t>
+  </si>
+  <si>
     <t>Description:</t>
   </si>
   <si>
+    <t>When comment is written for a image, detail about comment is not correct. As soon as the comment is given it is written that is from "an hour ago" instead "few seconds ago" or some other. Time of the testing was not at the ending of one and the beginning of the new hour, so this can not be explained that way.</t>
+  </si>
+  <si>
     <t>Steps to reproduce:</t>
   </si>
   <si>
+    <t>Click on All Galleries</t>
+  </si>
+  <si>
+    <t>In Search field write "Cat"</t>
+  </si>
+  <si>
+    <t>Click on "Filter" button</t>
+  </si>
+  <si>
+    <t>Click on Gallery name "CAT"</t>
+  </si>
+  <si>
+    <t>Scroll down to the comment field</t>
+  </si>
+  <si>
+    <t>In comment field insert comment (nice cat)</t>
+  </si>
+  <si>
+    <t>Click on "submit" button</t>
+  </si>
+  <si>
     <t>Expected result:</t>
   </si>
   <si>
+    <t>Time of posting comment is "just now", or actual time</t>
+  </si>
+  <si>
     <t>Actual result:</t>
   </si>
   <si>
+    <t>Time of posting comment is "an hour ago"</t>
+  </si>
+  <si>
     <t>Environment:</t>
   </si>
   <si>
+    <t>Intel(R) Core(TM) i3-5005U CPU @2.00GHz 2.00 GHz / Windows 10 Pro 2004 / GoogleChrome Version 88.0.4324.190 (Official Build) (64-bit)</t>
+  </si>
+  <si>
     <t>Screenshot:</t>
   </si>
   <si>
-    <t>Assing to:</t>
+    <t>Assign to:</t>
   </si>
   <si>
     <t>developer no1</t>
@@ -118,6 +326,90 @@
   </si>
   <si>
     <t>Severity:</t>
+  </si>
+  <si>
+    <t>Nonfunctional one step back button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After browsing galleries and entering one of them I tried to go back (using one step back button) and app set me on the home page </t>
+  </si>
+  <si>
+    <t>In Search field write Cat</t>
+  </si>
+  <si>
+    <t>Click on "Filter" button (three galleries appeared)</t>
+  </si>
+  <si>
+    <t>Sending one step back (three galleries appeared)</t>
+  </si>
+  <si>
+    <t>Sending on a home page</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i3-5005U CPU @2.00GHz 2.00 GHz / Windows 10 Pro 2004 / GoogleChrom Version 88.0.4324.190 (Official Build) (64-bit)</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search does not accept Enter button </t>
+  </si>
+  <si>
+    <t>Although this can be considered more as a improvement than a bug I decided to report it. After entering a word for search if you press Enter button on a keyboard search is not started. Search is started when you click on "Filter" button</t>
+  </si>
+  <si>
+    <t>Click on "Enter" button on your keyboard</t>
+  </si>
+  <si>
+    <t>Results for given word can be found</t>
+  </si>
+  <si>
+    <t>Nothing happens</t>
+  </si>
+  <si>
+    <t>Search is not filtrating well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During search, beside galleries with the keyword, galleries which are not connected in any way with the keyword are also shown  </t>
+  </si>
+  <si>
+    <t>Click on Search field</t>
+  </si>
+  <si>
+    <t>In Search field write "Test"</t>
+  </si>
+  <si>
+    <t>Results only for given word are displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beside expected results with the given keyword ("Test"), galleries without selected keyword are also shown </t>
+  </si>
+  <si>
+    <t>logIn</t>
+  </si>
+  <si>
+    <t>eMail</t>
+  </si>
+  <si>
+    <t>jb@fakemail.com</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Tito2021</t>
+  </si>
+  <si>
+    <t>newGallery</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>url</t>
   </si>
 </sst>
 </file>
@@ -125,12 +417,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -138,13 +430,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -155,6 +448,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -198,14 +497,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -224,14 +528,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,24 +536,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,22 +558,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,17 +596,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,9 +627,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,6 +636,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,19 +656,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -389,13 +692,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +710,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,25 +758,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +788,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,55 +848,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,37 +872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,12 +886,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -605,15 +921,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,21 +950,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -680,49 +972,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,168 +1028,179 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -961,19 +1269,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>32385</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="IMG_20210301_140053"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -986,8 +1294,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2543175" y="2400300"/>
-          <a:ext cx="13011150" cy="7315200"/>
+          <a:off x="2575560" y="2635885"/>
+          <a:ext cx="7658100" cy="4126865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="Inline image"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543175" y="9801225"/>
+          <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -998,6 +1343,610 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="Inline image"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543175" y="9801225"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="Inline image"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543175" y="10001250"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="Bug2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2552700" y="9810750"/>
+          <a:ext cx="10058400" cy="3711575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="Inline image"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543175" y="16602075"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="Inline image"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543175" y="16602075"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="Inline image"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543175" y="16802100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2533650</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="Bug3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2533650" y="16649700"/>
+          <a:ext cx="10058400" cy="3261360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Inline image"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543175" y="22802850"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Inline image"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543175" y="22802850"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Inline image"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543175" y="23002875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33020</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>86995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>842645</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>137795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="Bug4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2576195" y="22889845"/>
+          <a:ext cx="10058400" cy="5051425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3316605</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>75565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>189865</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangles 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9079230" y="24478615"/>
+          <a:ext cx="1895475" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="sr-Latn-RS" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Keyword was “Test”</a:t>
+          </a:r>
+          <a:endParaRPr lang="sr-Latn-RS" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1206,7 +2155,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -1220,138 +2169,144 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:26">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:10">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="32">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B6" s="9"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B7" s="9"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="34"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="12"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B11" s="9"/>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B12" s="9"/>
+      <c r="B12" s="12"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="12"/>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B14" s="9"/>
+      <c r="B14" s="12"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B15" s="9"/>
+      <c r="B15" s="12"/>
     </row>
     <row r="16" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B16" s="9"/>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B17" s="9"/>
+      <c r="B17" s="12"/>
     </row>
     <row r="18" ht="15.75" customHeight="1" spans="1:2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="12"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B19" s="8"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B23" s="8"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="1:2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B25" s="8"/>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="1:2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B27" s="8"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B28" s="8"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" ht="15.75" customHeight="1"/>
     <row r="30" ht="15.75" customHeight="1"/>
@@ -2340,1199 +3295,1906 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G1002"/>
+  <dimension ref="A1:H1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="43.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="51.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="17.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="37.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="24.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="27.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="51.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="17.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="37.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="24.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="C1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="D1" s="19"/>
+      <c r="F1" s="18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="16" t="s">
+      <c r="G1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="H1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="18"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" spans="3:5">
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" spans="3:3">
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="5"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" spans="3:6">
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C15" s="20"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1" spans="3:5">
-      <c r="C16" s="9"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="2:8">
+      <c r="B3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="2:7">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" spans="3:6">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="F9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" spans="2:8">
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" spans="2:7">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" spans="3:6">
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1" spans="3:3">
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="5"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C26" s="20"/>
+      <c r="E16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="F18" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" spans="2:8">
+      <c r="B20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" spans="2:7">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1" spans="3:6">
+      <c r="C26" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D26" s="9"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="5"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C36" s="20"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C39" s="20"/>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="5"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C44" s="20"/>
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="5"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="17"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C50" s="20"/>
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C55" s="21"/>
-      <c r="D55" s="9"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="5"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="17"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B63" s="8"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C64" s="20"/>
-      <c r="D64" s="9"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="5"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="17"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B69" s="8"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C70" s="20"/>
-      <c r="D70" s="9"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="5"/>
-      <c r="E73" s="16"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="17"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B75" s="8"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-    </row>
-    <row r="76" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C76" s="20"/>
-      <c r="D76" s="9"/>
-    </row>
-    <row r="77" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="5"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C82" s="20"/>
-      <c r="D82" s="9"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C84" s="8"/>
-      <c r="D84" s="9"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C85" s="8"/>
+      <c r="E26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A28" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="F28" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1" spans="2:8">
+      <c r="B30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1" spans="2:7">
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1" spans="3:6">
+      <c r="C35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1" spans="2:5">
+      <c r="B36" s="9"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A37" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="F37" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="20"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" spans="2:8">
+      <c r="B39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" spans="2:7">
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1" spans="3:6">
+      <c r="C48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="20"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A50" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="F50" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="20"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1" spans="2:7">
+      <c r="B52" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" spans="2:7">
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="18"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="2"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1" spans="2:5">
+      <c r="B59" s="9"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C60" s="2"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="20"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1" spans="2:5">
+      <c r="B64" s="9"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="12"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="20"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1" spans="2:5">
+      <c r="B70" s="9"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="12"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="F74" s="18"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="20"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1" spans="2:5">
+      <c r="B76" s="9"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="12"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="7"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="12"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C85" s="9"/>
       <c r="D85" s="9"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C87" s="8"/>
+      <c r="E85" s="12"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="12"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C87" s="9"/>
       <c r="D87" s="9"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-    </row>
-    <row r="89" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C89" s="8"/>
+      <c r="E87" s="9"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="12"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C89" s="9"/>
       <c r="D89" s="9"/>
-    </row>
-    <row r="90" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-    </row>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="5"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-    </row>
-    <row r="93" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-    </row>
-    <row r="95" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C95" s="20"/>
-      <c r="D95" s="9"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-    </row>
-    <row r="97" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C97" s="8"/>
-      <c r="D97" s="9"/>
-    </row>
-    <row r="98" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C98" s="8"/>
+      <c r="E89" s="9"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="12"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A93" s="18"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="7"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="12"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C98" s="9"/>
       <c r="D98" s="9"/>
-    </row>
-    <row r="99" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C99" s="8"/>
+      <c r="E98" s="12"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C99" s="9"/>
       <c r="D99" s="9"/>
-    </row>
-    <row r="100" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C100" s="8"/>
+      <c r="E99" s="12"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C100" s="9"/>
       <c r="D100" s="9"/>
-    </row>
-    <row r="101" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-    </row>
-    <row r="102" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C102" s="8"/>
+      <c r="E100" s="12"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="12"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C102" s="9"/>
       <c r="D102" s="9"/>
-    </row>
-    <row r="103" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C103" s="8"/>
+      <c r="E102" s="9"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C103" s="9"/>
       <c r="D103" s="9"/>
-    </row>
-    <row r="104" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C104" s="8"/>
+      <c r="E103" s="12"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C104" s="9"/>
       <c r="D104" s="9"/>
-    </row>
-    <row r="105" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C105" s="8"/>
+      <c r="E104" s="12"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C105" s="9"/>
       <c r="D105" s="9"/>
-    </row>
-    <row r="106" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C106" s="8"/>
+      <c r="E105" s="12"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C106" s="9"/>
       <c r="D106" s="9"/>
-    </row>
-    <row r="107" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C107" s="8"/>
+      <c r="E106" s="12"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C107" s="9"/>
       <c r="D107" s="9"/>
-    </row>
-    <row r="108" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-    </row>
-    <row r="109" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C109" s="8"/>
+      <c r="E107" s="12"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="12"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C109" s="9"/>
       <c r="D109" s="9"/>
-    </row>
-    <row r="110" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C110" s="8"/>
+      <c r="E109" s="9"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C110" s="9"/>
       <c r="D110" s="9"/>
-    </row>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A112" s="16"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="5"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
-    </row>
-    <row r="113" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="3"/>
-    </row>
-    <row r="114" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-    </row>
-    <row r="115" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C115" s="20"/>
-      <c r="D115" s="9"/>
-    </row>
-    <row r="116" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-    </row>
-    <row r="117" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-    </row>
-    <row r="118" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C118" s="8"/>
+      <c r="E110" s="12"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="12"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A113" s="18"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="7"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="12"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C118" s="9"/>
       <c r="D118" s="9"/>
-    </row>
-    <row r="119" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-    </row>
-    <row r="120" ht="15.75" customHeight="1" spans="3:3">
-      <c r="C120" s="8"/>
-    </row>
-    <row r="121" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A121" s="16"/>
-      <c r="B121" s="16"/>
-      <c r="C121" s="5"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-    </row>
-    <row r="122" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="3"/>
-    </row>
-    <row r="123" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-    </row>
-    <row r="124" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C124" s="20"/>
-      <c r="D124" s="9"/>
-    </row>
-    <row r="125" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-    </row>
-    <row r="126" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-    </row>
-    <row r="127" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-    </row>
-    <row r="128" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-    </row>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A130" s="16"/>
-      <c r="B130" s="16"/>
-      <c r="C130" s="5"/>
-      <c r="E130" s="16"/>
-      <c r="F130" s="16"/>
-    </row>
-    <row r="131" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="17"/>
-      <c r="F131" s="3"/>
-    </row>
-    <row r="132" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-    </row>
-    <row r="133" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C133" s="20"/>
-      <c r="D133" s="9"/>
-    </row>
-    <row r="134" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-    </row>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A136" s="16"/>
-      <c r="B136" s="16"/>
-      <c r="C136" s="5"/>
-      <c r="E136" s="16"/>
-      <c r="F136" s="16"/>
-    </row>
-    <row r="137" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="3"/>
-    </row>
-    <row r="138" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-    </row>
-    <row r="139" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C139" s="20"/>
-      <c r="D139" s="9"/>
-    </row>
-    <row r="140" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C140" s="9"/>
-      <c r="D140" s="8"/>
-    </row>
-    <row r="141" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-    </row>
-    <row r="142" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-    </row>
-    <row r="143" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
-    </row>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A145" s="16"/>
-      <c r="B145" s="16"/>
-      <c r="C145" s="5"/>
-      <c r="E145" s="16"/>
-      <c r="F145" s="16"/>
-    </row>
-    <row r="146" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="16"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="17"/>
-      <c r="F146" s="3"/>
-    </row>
-    <row r="147" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
-    </row>
-    <row r="148" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C148" s="20"/>
-      <c r="D148" s="9"/>
-    </row>
-    <row r="149" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-    </row>
-    <row r="150" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-    </row>
-    <row r="151" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-    </row>
-    <row r="152" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-    </row>
-    <row r="153" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-    </row>
-    <row r="154" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-    </row>
-    <row r="155" ht="15.75" customHeight="1" spans="3:4">
+      <c r="E118" s="9"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="12"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1" spans="3:4">
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A122" s="18"/>
+      <c r="B122" s="18"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="18"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="7"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="12"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A131" s="18"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A132" s="7"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="7"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C134" s="22"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="12"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A137" s="18"/>
+      <c r="B137" s="18"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="18"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A138" s="7"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="7"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C140" s="22"/>
+      <c r="D140" s="22"/>
+      <c r="E140" s="12"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="9"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A146" s="18"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="19"/>
+      <c r="F146" s="18"/>
+      <c r="G146" s="18"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A147" s="7"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="18"/>
+      <c r="E147" s="18"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="7"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C149" s="22"/>
+      <c r="D149" s="22"/>
+      <c r="E149" s="12"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1" spans="3:5">
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
-    </row>
-    <row r="156" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
-    </row>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A158" s="16"/>
-      <c r="B158" s="16"/>
-      <c r="C158" s="5"/>
-      <c r="E158" s="16"/>
-      <c r="F158" s="16"/>
-    </row>
-    <row r="159" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="16"/>
-      <c r="D159" s="16"/>
-      <c r="E159" s="17"/>
-      <c r="F159" s="3"/>
-    </row>
-    <row r="160" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B160" s="8"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-    </row>
-    <row r="161" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-    </row>
-    <row r="162" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-    </row>
-    <row r="163" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-    </row>
-    <row r="164" ht="15.75" customHeight="1" spans="3:6">
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="8"/>
-    </row>
-    <row r="165" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-    </row>
-    <row r="166" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
-    </row>
-    <row r="167" ht="15.75" customHeight="1" spans="3:6">
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
-      <c r="F167" s="8"/>
-    </row>
-    <row r="168" ht="15.75" customHeight="1" spans="3:4">
+      <c r="E155" s="9"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A159" s="18"/>
+      <c r="B159" s="18"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
+      <c r="F159" s="18"/>
+      <c r="G159" s="18"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A160" s="7"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="18"/>
+      <c r="E160" s="18"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="7"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1" spans="2:5">
+      <c r="B161" s="9"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1" spans="3:7">
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="9"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1" spans="3:7">
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
-    </row>
-    <row r="169" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C169" s="8"/>
-      <c r="D169" s="8"/>
-    </row>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A171" s="16"/>
-      <c r="B171" s="16"/>
-      <c r="C171" s="5"/>
-      <c r="E171" s="16"/>
-      <c r="F171" s="16"/>
-    </row>
-    <row r="172" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="16"/>
-      <c r="D172" s="16"/>
-      <c r="E172" s="17"/>
-      <c r="F172" s="3"/>
-    </row>
-    <row r="173" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
-    </row>
-    <row r="174" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C174" s="20"/>
-      <c r="D174" s="9"/>
-    </row>
-    <row r="175" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
-    </row>
-    <row r="176" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-    </row>
-    <row r="177" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-    </row>
-    <row r="178" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
-    </row>
-    <row r="179" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
-    </row>
-    <row r="180" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
-    </row>
-    <row r="181" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A181" s="16"/>
-      <c r="B181" s="16"/>
-      <c r="C181" s="5"/>
-      <c r="E181" s="16"/>
-      <c r="F181" s="16"/>
-    </row>
-    <row r="182" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="16"/>
-      <c r="D182" s="16"/>
-      <c r="E182" s="17"/>
-      <c r="F182" s="3"/>
-    </row>
-    <row r="183" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B183" s="9"/>
-      <c r="C183" s="9"/>
-      <c r="D183" s="9"/>
-    </row>
-    <row r="184" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C184" s="20"/>
-      <c r="D184" s="9"/>
-    </row>
-    <row r="185" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C185" s="8"/>
-      <c r="D185" s="8"/>
-    </row>
-    <row r="186" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C186" s="8"/>
-      <c r="D186" s="8"/>
-    </row>
-    <row r="187" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C187" s="8"/>
-      <c r="D187" s="8"/>
-    </row>
-    <row r="188" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C188" s="8"/>
-      <c r="D188" s="8"/>
-    </row>
-    <row r="189" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
-    </row>
-    <row r="190" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
-    </row>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A192" s="16"/>
-      <c r="B192" s="16"/>
-      <c r="C192" s="5"/>
-      <c r="E192" s="16"/>
-      <c r="F192" s="16"/>
-    </row>
-    <row r="193" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
-      <c r="C193" s="16"/>
-      <c r="D193" s="16"/>
-      <c r="E193" s="17"/>
-      <c r="F193" s="3"/>
-    </row>
-    <row r="194" ht="15.75" customHeight="1" spans="2:4">
-      <c r="B194" s="8"/>
-      <c r="C194" s="9"/>
-      <c r="D194" s="9"/>
-    </row>
-    <row r="195" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C195" s="20"/>
-      <c r="D195" s="9"/>
-    </row>
-    <row r="196" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C196" s="8"/>
-      <c r="D196" s="8"/>
-    </row>
-    <row r="197" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C197" s="8"/>
-      <c r="D197" s="8"/>
-    </row>
-    <row r="198" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C198" s="8"/>
-      <c r="D198" s="8"/>
-    </row>
-    <row r="199" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C199" s="8"/>
-      <c r="D199" s="8"/>
-    </row>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A201" s="16"/>
-      <c r="B201" s="16"/>
-      <c r="C201" s="5"/>
-      <c r="E201" s="16"/>
-      <c r="F201" s="16"/>
-    </row>
-    <row r="202" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
-      <c r="C202" s="16"/>
-      <c r="D202" s="16"/>
-      <c r="E202" s="17"/>
-      <c r="F202" s="3"/>
-    </row>
-    <row r="203" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C203" s="9"/>
-      <c r="D203" s="9"/>
-    </row>
-    <row r="204" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C204" s="20"/>
-      <c r="D204" s="9"/>
-    </row>
-    <row r="205" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C205" s="23"/>
-      <c r="D205" s="24"/>
-    </row>
-    <row r="206" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C206" s="24"/>
-      <c r="D206" s="24"/>
-    </row>
-    <row r="207" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C207" s="23"/>
-      <c r="D207" s="24"/>
-    </row>
-    <row r="208" ht="15.75" customHeight="1" spans="3:6">
-      <c r="C208" s="24"/>
-      <c r="D208" s="24"/>
-      <c r="E208" s="24"/>
-      <c r="F208" s="24"/>
-    </row>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A210" s="16"/>
-      <c r="B210" s="16"/>
-      <c r="C210" s="5"/>
-      <c r="E210" s="16"/>
-      <c r="F210" s="16"/>
-    </row>
-    <row r="211" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
-      <c r="C211" s="16"/>
-      <c r="D211" s="16"/>
-      <c r="E211" s="17"/>
-      <c r="F211" s="3"/>
-    </row>
-    <row r="212" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C212" s="9"/>
-      <c r="D212" s="9"/>
-    </row>
-    <row r="213" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C213" s="20"/>
-      <c r="D213" s="9"/>
-    </row>
-    <row r="214" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C214" s="24"/>
-      <c r="D214" s="23"/>
-    </row>
-    <row r="215" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C215" s="23"/>
-      <c r="D215" s="23"/>
-    </row>
-    <row r="216" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C216" s="23"/>
-      <c r="D216" s="23"/>
-    </row>
-    <row r="217" ht="15.75" customHeight="1" spans="3:6">
-      <c r="C217" s="24"/>
-      <c r="D217" s="24"/>
-      <c r="E217" s="24"/>
-      <c r="F217" s="23"/>
-    </row>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A219" s="16"/>
-      <c r="B219" s="16"/>
-      <c r="C219" s="5"/>
-      <c r="E219" s="16"/>
-      <c r="F219" s="16"/>
-    </row>
-    <row r="220" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A220" s="3"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="16"/>
-      <c r="D220" s="16"/>
-      <c r="E220" s="17"/>
-      <c r="F220" s="3"/>
-    </row>
-    <row r="221" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C221" s="9"/>
-      <c r="D221" s="9"/>
-    </row>
-    <row r="222" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C222" s="25"/>
-      <c r="D222" s="24"/>
-    </row>
-    <row r="223" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C223" s="23"/>
-      <c r="D223" s="23"/>
-    </row>
-    <row r="224" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C224" s="24"/>
-      <c r="D224" s="24"/>
+      <c r="E168" s="9"/>
+      <c r="G168" s="9"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A172" s="18"/>
+      <c r="B172" s="18"/>
+      <c r="C172" s="19"/>
+      <c r="D172" s="19"/>
+      <c r="F172" s="18"/>
+      <c r="G172" s="18"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A173" s="7"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="18"/>
+      <c r="E173" s="18"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="7"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C175" s="22"/>
+      <c r="D175" s="22"/>
+      <c r="E175" s="12"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C178" s="9"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C180" s="9"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A182" s="18"/>
+      <c r="B182" s="18"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="19"/>
+      <c r="F182" s="18"/>
+      <c r="G182" s="18"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A183" s="7"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="18"/>
+      <c r="D183" s="18"/>
+      <c r="E183" s="18"/>
+      <c r="F183" s="20"/>
+      <c r="G183" s="7"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1" spans="2:5">
+      <c r="B184" s="12"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C185" s="22"/>
+      <c r="D185" s="22"/>
+      <c r="E185" s="12"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C186" s="9"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="9"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C187" s="9"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C188" s="9"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C190" s="9"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="9"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C191" s="9"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="9"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A193" s="18"/>
+      <c r="B193" s="18"/>
+      <c r="C193" s="19"/>
+      <c r="D193" s="19"/>
+      <c r="F193" s="18"/>
+      <c r="G193" s="18"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A194" s="7"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="18"/>
+      <c r="D194" s="18"/>
+      <c r="E194" s="18"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="7"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1" spans="2:5">
+      <c r="B195" s="9"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C196" s="22"/>
+      <c r="D196" s="22"/>
+      <c r="E196" s="12"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C197" s="9"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C198" s="9"/>
+      <c r="D198" s="9"/>
+      <c r="E198" s="9"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C199" s="9"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="9"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C200" s="9"/>
+      <c r="D200" s="9"/>
+      <c r="E200" s="9"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A202" s="18"/>
+      <c r="B202" s="18"/>
+      <c r="C202" s="19"/>
+      <c r="D202" s="19"/>
+      <c r="F202" s="18"/>
+      <c r="G202" s="18"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A203" s="7"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="18"/>
+      <c r="D203" s="18"/>
+      <c r="E203" s="18"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="7"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C204" s="12"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C205" s="22"/>
+      <c r="D205" s="22"/>
+      <c r="E205" s="12"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C206" s="26"/>
+      <c r="D206" s="26"/>
+      <c r="E206" s="27"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C207" s="27"/>
+      <c r="D207" s="27"/>
+      <c r="E207" s="27"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C208" s="26"/>
+      <c r="D208" s="26"/>
+      <c r="E208" s="27"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1" spans="3:7">
+      <c r="C209" s="27"/>
+      <c r="D209" s="27"/>
+      <c r="E209" s="27"/>
+      <c r="F209" s="27"/>
+      <c r="G209" s="27"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A211" s="18"/>
+      <c r="B211" s="18"/>
+      <c r="C211" s="19"/>
+      <c r="D211" s="19"/>
+      <c r="F211" s="18"/>
+      <c r="G211" s="18"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A212" s="7"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="18"/>
+      <c r="D212" s="18"/>
+      <c r="E212" s="18"/>
+      <c r="F212" s="20"/>
+      <c r="G212" s="7"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C213" s="12"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="12"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C214" s="22"/>
+      <c r="D214" s="22"/>
+      <c r="E214" s="12"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C215" s="27"/>
+      <c r="D215" s="27"/>
+      <c r="E215" s="26"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C216" s="26"/>
+      <c r="D216" s="26"/>
+      <c r="E216" s="26"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C217" s="26"/>
+      <c r="D217" s="26"/>
+      <c r="E217" s="26"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1" spans="3:7">
+      <c r="C218" s="27"/>
+      <c r="D218" s="27"/>
+      <c r="E218" s="27"/>
+      <c r="F218" s="27"/>
+      <c r="G218" s="26"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A220" s="18"/>
+      <c r="B220" s="18"/>
+      <c r="C220" s="19"/>
+      <c r="D220" s="19"/>
+      <c r="F220" s="18"/>
+      <c r="G220" s="18"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A221" s="7"/>
+      <c r="B221" s="7"/>
+      <c r="C221" s="18"/>
+      <c r="D221" s="18"/>
+      <c r="E221" s="18"/>
+      <c r="F221" s="20"/>
+      <c r="G221" s="7"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C222" s="12"/>
+      <c r="D222" s="12"/>
+      <c r="E222" s="12"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C223" s="28"/>
+      <c r="D223" s="28"/>
+      <c r="E223" s="27"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C224" s="26"/>
+      <c r="D224" s="26"/>
+      <c r="E224" s="26"/>
     </row>
     <row r="225" ht="15.75" customHeight="1" spans="3:5">
-      <c r="C225" s="24"/>
-      <c r="D225" s="24"/>
-      <c r="E225" s="24"/>
-    </row>
-    <row r="226" ht="15.75" customHeight="1" spans="5:5">
-      <c r="E226" s="23"/>
-    </row>
-    <row r="227" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A227" s="16"/>
-      <c r="B227" s="16"/>
-      <c r="C227" s="5"/>
-      <c r="E227" s="16"/>
-      <c r="F227" s="16"/>
-    </row>
-    <row r="228" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A228" s="3"/>
-      <c r="B228" s="3"/>
-      <c r="C228" s="16"/>
-      <c r="D228" s="16"/>
-      <c r="E228" s="17"/>
-      <c r="F228" s="3"/>
-    </row>
-    <row r="229" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C229" s="9"/>
-      <c r="D229" s="9"/>
-    </row>
-    <row r="230" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C230" s="25"/>
-      <c r="D230" s="24"/>
-    </row>
-    <row r="231" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C231" s="23"/>
-      <c r="D231" s="24"/>
+      <c r="C225" s="27"/>
+      <c r="D225" s="27"/>
+      <c r="E225" s="27"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1" spans="3:6">
+      <c r="C226" s="27"/>
+      <c r="D226" s="27"/>
+      <c r="E226" s="27"/>
+      <c r="F226" s="27"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1" spans="6:6">
+      <c r="F227" s="26"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A228" s="18"/>
+      <c r="B228" s="18"/>
+      <c r="C228" s="19"/>
+      <c r="D228" s="19"/>
+      <c r="F228" s="18"/>
+      <c r="G228" s="18"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A229" s="7"/>
+      <c r="B229" s="7"/>
+      <c r="C229" s="18"/>
+      <c r="D229" s="18"/>
+      <c r="E229" s="18"/>
+      <c r="F229" s="20"/>
+      <c r="G229" s="7"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C230" s="12"/>
+      <c r="D230" s="12"/>
+      <c r="E230" s="12"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C231" s="28"/>
+      <c r="D231" s="28"/>
+      <c r="E231" s="27"/>
     </row>
     <row r="232" ht="15.75" customHeight="1" spans="3:5">
-      <c r="C232" s="23"/>
-      <c r="D232" s="24"/>
-      <c r="E232" s="24"/>
-    </row>
-    <row r="233" ht="15.75" customHeight="1" spans="4:4">
+      <c r="C232" s="26"/>
+      <c r="D232" s="26"/>
+      <c r="E232" s="27"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1" spans="3:6">
+      <c r="C233" s="26"/>
       <c r="D233" s="26"/>
-    </row>
-    <row r="234" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A234" s="16"/>
-      <c r="B234" s="16"/>
-      <c r="C234" s="5"/>
-      <c r="E234" s="16"/>
-      <c r="F234" s="16"/>
-    </row>
-    <row r="235" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A235" s="3"/>
-      <c r="B235" s="3"/>
-      <c r="C235" s="16"/>
-      <c r="D235" s="16"/>
-      <c r="E235" s="17"/>
-      <c r="F235" s="3"/>
-    </row>
-    <row r="236" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C236" s="9"/>
-      <c r="D236" s="9"/>
-    </row>
-    <row r="237" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C237" s="20"/>
-      <c r="D237" s="9"/>
-    </row>
-    <row r="238" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C238" s="23"/>
-      <c r="D238" s="23"/>
-    </row>
-    <row r="239" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C239" s="23"/>
-      <c r="D239" s="23"/>
-    </row>
-    <row r="240" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C240" s="23"/>
-      <c r="D240" s="23"/>
+      <c r="E233" s="27"/>
+      <c r="F233" s="27"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1" spans="5:5">
+      <c r="E234" s="29"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A235" s="18"/>
+      <c r="B235" s="18"/>
+      <c r="C235" s="19"/>
+      <c r="D235" s="19"/>
+      <c r="F235" s="18"/>
+      <c r="G235" s="18"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A236" s="7"/>
+      <c r="B236" s="7"/>
+      <c r="C236" s="18"/>
+      <c r="D236" s="18"/>
+      <c r="E236" s="18"/>
+      <c r="F236" s="20"/>
+      <c r="G236" s="7"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C237" s="12"/>
+      <c r="D237" s="12"/>
+      <c r="E237" s="12"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C238" s="22"/>
+      <c r="D238" s="22"/>
+      <c r="E238" s="12"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C239" s="26"/>
+      <c r="D239" s="26"/>
+      <c r="E239" s="26"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C240" s="26"/>
+      <c r="D240" s="26"/>
+      <c r="E240" s="26"/>
     </row>
     <row r="241" ht="15.75" customHeight="1" spans="3:5">
-      <c r="C241" s="8"/>
-      <c r="D241" s="8"/>
-      <c r="E241" s="23"/>
-    </row>
-    <row r="242" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C242" s="8"/>
-      <c r="D242" s="8"/>
-    </row>
-    <row r="243" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C243" s="24"/>
-      <c r="D243" s="23"/>
-    </row>
-    <row r="244" ht="15.75" customHeight="1" spans="3:4">
-      <c r="C244" s="24"/>
-      <c r="D244" s="24"/>
-    </row>
-    <row r="245" ht="15.75" customHeight="1" spans="3:6">
-      <c r="C245" s="23"/>
-      <c r="D245" s="24"/>
-      <c r="F245" s="24"/>
-    </row>
-    <row r="246" ht="15.75" customHeight="1"/>
+      <c r="C241" s="26"/>
+      <c r="D241" s="26"/>
+      <c r="E241" s="26"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1" spans="3:6">
+      <c r="C242" s="9"/>
+      <c r="D242" s="9"/>
+      <c r="E242" s="9"/>
+      <c r="F242" s="26"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C243" s="9"/>
+      <c r="D243" s="9"/>
+      <c r="E243" s="9"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C244" s="27"/>
+      <c r="D244" s="27"/>
+      <c r="E244" s="26"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1" spans="3:5">
+      <c r="C245" s="27"/>
+      <c r="D245" s="27"/>
+      <c r="E245" s="27"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1" spans="3:7">
+      <c r="C246" s="26"/>
+      <c r="D246" s="26"/>
+      <c r="E246" s="27"/>
+      <c r="G246" s="27"/>
+    </row>
     <row r="247" ht="15.75" customHeight="1"/>
     <row r="248" ht="15.75" customHeight="1"/>
     <row r="249" ht="15.75" customHeight="1"/>
@@ -4289,33 +5951,34 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="C227:D227"/>
-    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="C146:E146"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="C182:E182"/>
+    <mergeCell ref="C193:E193"/>
+    <mergeCell ref="C202:E202"/>
+    <mergeCell ref="C211:E211"/>
+    <mergeCell ref="C220:E220"/>
+    <mergeCell ref="C228:E228"/>
+    <mergeCell ref="C235:E235"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -4328,13 +5991,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:D994"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="38.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="48.2857142857143" customWidth="1"/>
@@ -4343,268 +6006,663 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="A1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="6">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
+      <c r="A3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
+      <c r="A4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="2:3">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="2:3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="2:3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="2:3">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" spans="2:5">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="2:3">
+      <c r="B9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" spans="2:3">
+      <c r="B10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="8"/>
+      <c r="A11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
+      <c r="A12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A14" s="1"/>
+      <c r="A14" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A15" s="1"/>
+      <c r="A15" s="5"/>
     </row>
     <row r="16" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A16" s="1"/>
+      <c r="A16" s="5"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A17" s="1"/>
+      <c r="A17" s="5"/>
     </row>
     <row r="18" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A18" s="1"/>
+      <c r="A18" s="5"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A19" s="1"/>
+      <c r="A19" s="5"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A20" s="1"/>
+      <c r="A20" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A21" s="1"/>
+      <c r="A21" s="5"/>
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A22" s="1"/>
+      <c r="A22" s="5"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A23" s="1"/>
+      <c r="A23" s="5"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A24" s="1"/>
+      <c r="A24" s="5"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A25" s="1"/>
+      <c r="A25" s="5"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A26" s="1"/>
+      <c r="A26" s="5"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A27" s="1"/>
+      <c r="A27" s="5"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A28" s="1"/>
+      <c r="A28" s="5"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A29" s="1"/>
+      <c r="A29" s="5"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A30" s="1"/>
+      <c r="A30" s="5"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A31" s="1"/>
+      <c r="A31" s="5"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A32" s="1"/>
+      <c r="A32" s="5"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" spans="1:1">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1" spans="1:2">
-      <c r="A34" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A34" s="5"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="1:2">
       <c r="A35" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="14">
+        <v>91</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A36" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="16">
         <v>1</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1" spans="1:2">
-      <c r="A36" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="1:2">
       <c r="A37" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
+        <v>94</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A38" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" s="4" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="6">
+        <v>2</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A41" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A43" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1" spans="2:3">
+      <c r="B44" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="12"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" spans="2:3">
+      <c r="B45" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1" spans="2:3">
+      <c r="B46" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A47" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A48" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A49" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A50" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A52" s="5"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A54" s="5"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A55" s="5"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A56" s="5"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A57" s="5"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A58" s="5"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A59" s="5"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A60" s="5"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A61" s="5"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A62" s="5"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A63" s="5"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A64" s="5"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A65" s="5"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A66" s="5"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A67" s="5"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A68" s="5"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A70" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A71" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A72" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A73" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" s="4" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A75" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" s="6">
+        <v>3</v>
+      </c>
+      <c r="C75" s="7"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A76" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="7"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A77" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" s="10"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A78" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="10"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1" spans="2:3">
+      <c r="B79" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="12"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1" spans="2:3">
+      <c r="B80" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" s="9"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A81" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A82" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A83" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A84" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A85" s="5"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A86" s="5"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A87" s="5"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A88" s="5"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A89" s="5"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A90" s="5"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A91" s="5"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A92" s="5"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A93" s="5"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A94" s="5"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A95" s="5"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A96" s="5"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A97" s="5"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A98" s="5"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A99" s="5"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A100" s="5"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A101" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A102" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A103" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A104" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="105" s="4" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A106" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B106" s="6">
+        <v>4</v>
+      </c>
+      <c r="C106" s="7"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A107" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" s="7"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A108" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" s="10"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A109" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" s="10"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1" spans="2:3">
+      <c r="B110" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" s="12"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1" spans="2:3">
+      <c r="B111" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C111" s="9"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A112" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A113" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A114" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A115" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A116" s="5"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A117" s="5"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A118" s="5"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A119" s="5"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A120" s="5"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A121" s="5"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A122" s="5"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A123" s="5"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A124" s="5"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A125" s="5"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A126" s="5"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A127" s="5"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A128" s="5"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A129" s="5"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A130" s="5"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1" spans="1:1">
+      <c r="A131" s="5"/>
+    </row>
     <row r="132" ht="15.75" customHeight="1"/>
     <row r="133" ht="15.75" customHeight="1"/>
     <row r="134" ht="15.75" customHeight="1"/>
@@ -4614,12 +6672,39 @@
     <row r="138" ht="15.75" customHeight="1"/>
     <row r="139" ht="15.75" customHeight="1"/>
     <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A141" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A142" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B142" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A143" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A144" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="146" s="4" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="147" ht="15.75" customHeight="1"/>
     <row r="148" ht="15.75" customHeight="1"/>
     <row r="149" ht="15.75" customHeight="1"/>
@@ -5468,16 +7553,78 @@
     <row r="992" ht="15.75" customHeight="1"/>
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="landscape"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="18.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="14.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="35.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="2:3">
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>